--- a/data/xlsx/armors.xlsx
+++ b/data/xlsx/armors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="1650">
   <si>
     <t>id</t>
   </si>
@@ -23,7 +23,7 @@
     <t>equip_slot_id</t>
   </si>
   <si>
-    <t>desc</t>
+    <t>description</t>
   </si>
   <si>
     <t>weight</t>
@@ -4150,6 +4150,9 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/armors/17f69466705l0i0pdkl9qzvc1ca9lv.png</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>Alberich's Bracers</t>
@@ -21648,7 +21651,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1067</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -21665,13 +21668,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -21691,13 +21694,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -21717,13 +21720,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -21743,13 +21746,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -21769,13 +21772,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -21795,13 +21798,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -21821,13 +21824,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -21844,13 +21847,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -21870,13 +21873,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -21896,13 +21899,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B11" s="1">
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -21922,13 +21925,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -21948,13 +21951,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B13" s="1">
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -21974,13 +21977,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B14" s="1">
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
@@ -22000,13 +22003,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B15" s="1">
         <v>5.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -22026,13 +22029,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
@@ -22052,13 +22055,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B17" s="1">
         <v>4.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
@@ -22078,13 +22081,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B18" s="1">
         <v>5.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -22104,13 +22107,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B19" s="1">
         <v>4.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
@@ -22130,13 +22133,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B20" s="1">
         <v>6.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
@@ -22156,13 +22159,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B21" s="1">
         <v>7.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -22182,13 +22185,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B22" s="1">
         <v>7.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>44</v>
@@ -22208,13 +22211,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B23" s="1">
         <v>7.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>46</v>
@@ -22234,13 +22237,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B24" s="1">
         <v>7.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>46</v>
@@ -22260,13 +22263,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B25" s="1">
         <v>7.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>49</v>
@@ -22286,13 +22289,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B26" s="1">
         <v>8.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
@@ -22312,13 +22315,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B27" s="1">
         <v>8.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>53</v>
@@ -22338,13 +22341,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B28" s="1">
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>55</v>
@@ -22364,13 +22367,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B29" s="1">
         <v>9.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>57</v>
@@ -22390,13 +22393,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B30" s="1">
         <v>9.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>59</v>
@@ -22416,13 +22419,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B31" s="1">
         <v>9.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>61</v>
@@ -22442,13 +22445,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B32" s="1">
         <v>10.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>63</v>
@@ -22468,13 +22471,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B33" s="1">
         <v>11.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>65</v>
@@ -22494,13 +22497,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B34" s="1">
         <v>11.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>65</v>
@@ -22520,13 +22523,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B35" s="1">
         <v>11.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>68</v>
@@ -22546,13 +22549,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B36" s="1">
         <v>11.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>70</v>
@@ -22572,13 +22575,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B37" s="1">
         <v>11.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>72</v>
@@ -22598,13 +22601,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B38" s="1">
         <v>11.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>74</v>
@@ -22624,13 +22627,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B39" s="1">
         <v>12.0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>76</v>
@@ -22650,13 +22653,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B40" s="1">
         <v>12.0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>78</v>
@@ -22676,13 +22679,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B41" s="1">
         <v>12.0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>80</v>
@@ -22702,13 +22705,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B42" s="1">
         <v>13.0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>82</v>
@@ -22728,13 +22731,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B43" s="1">
         <v>13.0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>82</v>
@@ -22754,13 +22757,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B44" s="1">
         <v>13.0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>85</v>
@@ -22780,13 +22783,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B45" s="1">
         <v>13.0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>87</v>
@@ -22806,13 +22809,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B46" s="1">
         <v>13.0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>89</v>
@@ -22832,13 +22835,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B47" s="1">
         <v>14.0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>91</v>
@@ -22858,13 +22861,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B48" s="1">
         <v>10.0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>93</v>
@@ -22884,13 +22887,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B49" s="1">
         <v>15.0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>95</v>
@@ -22910,13 +22913,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B50" s="1">
         <v>15.0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>97</v>
@@ -22936,13 +22939,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B51" s="1">
         <v>15.0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>99</v>
@@ -22959,13 +22962,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B52" s="1">
         <v>15.0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>100</v>
@@ -22982,13 +22985,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B53" s="1">
         <v>15.0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>101</v>
@@ -23005,13 +23008,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B54" s="1">
         <v>16.0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>102</v>
@@ -23031,13 +23034,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B55" s="1">
         <v>17.0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>104</v>
@@ -23057,13 +23060,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B56" s="1">
         <v>17.0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>106</v>
@@ -23083,13 +23086,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B57" s="1">
         <v>17.0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>108</v>
@@ -23106,13 +23109,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B58" s="1">
         <v>17.0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>109</v>
@@ -23132,13 +23135,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B59" s="1">
         <v>18.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>111</v>
@@ -23158,13 +23161,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B60" s="1">
         <v>16.0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>113</v>
@@ -23184,13 +23187,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B61" s="1">
         <v>16.0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>115</v>
@@ -23210,13 +23213,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B62" s="1">
         <v>16.0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>117</v>
@@ -23236,13 +23239,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B63" s="1">
         <v>16.0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>119</v>
@@ -23262,13 +23265,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B64" s="1">
         <v>19.0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>121</v>
@@ -23288,13 +23291,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B65" s="1">
         <v>19.0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>121</v>
@@ -23314,13 +23317,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B66" s="1">
         <v>19.0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>124</v>
@@ -23340,13 +23343,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B67" s="1">
         <v>19.0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>126</v>
@@ -23366,13 +23369,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B68" s="1">
         <v>19.0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>128</v>
@@ -23392,13 +23395,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B69" s="1">
         <v>20.0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>130</v>
@@ -23418,13 +23421,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B70" s="1">
         <v>20.0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>132</v>
@@ -23444,13 +23447,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B71" s="1">
         <v>21.0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>134</v>
@@ -23470,13 +23473,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B72" s="1">
         <v>22.0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>136</v>
@@ -23496,13 +23499,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B73" s="1">
         <v>22.0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>138</v>
@@ -23522,13 +23525,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B74" s="1">
         <v>23.0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>140</v>
@@ -23548,13 +23551,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B75" s="1">
         <v>23.0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>142</v>
@@ -23574,13 +23577,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B76" s="1">
         <v>24.0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>144</v>
@@ -23600,13 +23603,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B77" s="1">
         <v>24.0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>146</v>
@@ -23626,13 +23629,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B78" s="1">
         <v>24.0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>146</v>
@@ -23652,13 +23655,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B79" s="1">
         <v>24.0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>149</v>
@@ -23678,13 +23681,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B80" s="1">
         <v>24.0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>151</v>
@@ -23704,13 +23707,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B81" s="1">
         <v>25.0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>153</v>
@@ -23730,13 +23733,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B82" s="1">
         <v>25.0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>155</v>
@@ -23756,13 +23759,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B83" s="1">
         <v>25.0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>157</v>
@@ -23782,13 +23785,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B84" s="1">
         <v>25.0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>159</v>
@@ -23808,13 +23811,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B85" s="1">
         <v>25.0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>161</v>
@@ -23834,13 +23837,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B86" s="1">
         <v>25.0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>163</v>
@@ -23860,13 +23863,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B87" s="1">
         <v>26.0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>165</v>
@@ -23886,13 +23889,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B88" s="1">
         <v>26.0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>165</v>
@@ -23912,13 +23915,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B89" s="1">
         <v>26.0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>168</v>
@@ -23938,13 +23941,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B90" s="1">
         <v>26.0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>170</v>
@@ -23964,13 +23967,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B91" s="1">
         <v>26.0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>172</v>
@@ -23990,13 +23993,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B92" s="1">
         <v>27.0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>174</v>
@@ -24016,13 +24019,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B93" s="1">
         <v>27.0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>176</v>
@@ -24042,13 +24045,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B94" s="1">
         <v>27.0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>178</v>
@@ -24068,13 +24071,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B95" s="1">
         <v>27.0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>180</v>
@@ -24094,13 +24097,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B96" s="1">
         <v>28.0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>182</v>
@@ -24120,13 +24123,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B97" s="1">
         <v>28.0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>182</v>
@@ -24146,13 +24149,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B98" s="1">
         <v>28.0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>185</v>
@@ -24172,13 +24175,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B99" s="1">
         <v>28.0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>187</v>
@@ -24198,13 +24201,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B100" s="1">
         <v>28.0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>189</v>
@@ -24224,13 +24227,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B101" s="1">
         <v>29.0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>191</v>
@@ -24250,13 +24253,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B102" s="1">
         <v>30.0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>193</v>
@@ -24276,13 +24279,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B103" s="1">
         <v>30.0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>195</v>
@@ -24302,13 +24305,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B104" s="1">
         <v>30.0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>197</v>
@@ -24328,13 +24331,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B105" s="1">
         <v>31.0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>199</v>
@@ -24354,13 +24357,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B106" s="1">
         <v>32.0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>201</v>
@@ -24380,13 +24383,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B107" s="1">
         <v>32.0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>203</v>
@@ -24403,13 +24406,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B108" s="1">
         <v>32.0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>204</v>
@@ -24429,13 +24432,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B109" s="1">
         <v>32.0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>206</v>
@@ -24455,13 +24458,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B110" s="1">
         <v>33.0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>208</v>
@@ -24481,13 +24484,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B111" s="1">
         <v>33.0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>208</v>
@@ -24507,13 +24510,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B112" s="1">
         <v>33.0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>211</v>
@@ -24533,13 +24536,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B113" s="1">
         <v>33.0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>213</v>
@@ -24556,13 +24559,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B114" s="1">
         <v>33.0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>214</v>
@@ -24579,13 +24582,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B115" s="1">
         <v>33.0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>214</v>
@@ -24605,13 +24608,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B116" s="1">
         <v>34.0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>216</v>
@@ -24631,13 +24634,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B117" s="1">
         <v>34.0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>218</v>
@@ -24657,13 +24660,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B118" s="1">
         <v>35.0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>220</v>
@@ -24683,13 +24686,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B119" s="1">
         <v>35.0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>222</v>
@@ -24709,13 +24712,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B120" s="1">
         <v>35.0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>224</v>
@@ -24735,13 +24738,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B121" s="1">
         <v>35.0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>226</v>
@@ -24761,13 +24764,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B122" s="1">
         <v>35.0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>228</v>
@@ -24787,13 +24790,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B123" s="1">
         <v>35.0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>230</v>
@@ -24813,13 +24816,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B124" s="1">
         <v>35.0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>232</v>
@@ -24839,13 +24842,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B125" s="1">
         <v>36.0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>234</v>
@@ -24865,13 +24868,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B126" s="1">
         <v>36.0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>234</v>
@@ -24891,13 +24894,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B127" s="1">
         <v>36.0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>237</v>
@@ -24917,13 +24920,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B128" s="1">
         <v>36.0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>239</v>
@@ -24943,13 +24946,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B129" s="1">
         <v>36.0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>241</v>
@@ -24969,13 +24972,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B130" s="1">
         <v>36.0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>243</v>
@@ -24995,13 +24998,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B131" s="1">
         <v>20.0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>245</v>
@@ -25021,13 +25024,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B132" s="1">
         <v>20.0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>247</v>
@@ -25047,13 +25050,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B133" s="1">
         <v>20.0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>249</v>
@@ -25073,13 +25076,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B134" s="1">
         <v>37.0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>251</v>
@@ -25099,13 +25102,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B135" s="1">
         <v>38.0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>253</v>
@@ -25125,13 +25128,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B136" s="1">
         <v>39.0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>255</v>
@@ -25151,13 +25154,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B137" s="1">
         <v>40.0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>257</v>
@@ -25177,13 +25180,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B138" s="1">
         <v>40.0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>257</v>
@@ -25203,13 +25206,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B139" s="1">
         <v>40.0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>260</v>
@@ -25229,13 +25232,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B140" s="1">
         <v>40.0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>262</v>
@@ -25255,13 +25258,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B141" s="1">
         <v>40.0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>264</v>
@@ -25281,13 +25284,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B142" s="1">
         <v>40.0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>266</v>
@@ -25307,13 +25310,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B143" s="1">
         <v>40.0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>266</v>
@@ -25333,13 +25336,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B144" s="1">
         <v>40.0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>269</v>
@@ -25359,13 +25362,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B145" s="1">
         <v>41.0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>271</v>
@@ -25385,13 +25388,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B146" s="1">
         <v>41.0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>271</v>
@@ -25411,13 +25414,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B147" s="1">
         <v>41.0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>274</v>
@@ -25437,13 +25440,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B148" s="1">
         <v>41.0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>276</v>
@@ -25463,13 +25466,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B149" s="1">
         <v>41.0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>278</v>
@@ -25489,13 +25492,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B150" s="1">
         <v>42.0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>280</v>
@@ -25515,13 +25518,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B151" s="1">
         <v>43.0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>282</v>
@@ -25541,13 +25544,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B152" s="1">
         <v>43.0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>284</v>
@@ -25567,13 +25570,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B153" s="1">
         <v>44.0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>286</v>
@@ -25593,13 +25596,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B154" s="1">
         <v>44.0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>288</v>
@@ -25619,13 +25622,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B155" s="1">
         <v>44.0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>290</v>
@@ -25645,13 +25648,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B156" s="1">
         <v>44.0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>290</v>
@@ -25671,13 +25674,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B157" s="1">
         <v>44.0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>293</v>
@@ -25697,13 +25700,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B158" s="1">
         <v>45.0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>295</v>
@@ -25723,13 +25726,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B159" s="1">
         <v>2.0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>297</v>
@@ -25749,13 +25752,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B160" s="1">
         <v>46.0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>299</v>
@@ -25775,13 +25778,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B161" s="1">
         <v>46.0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>301</v>
@@ -25801,13 +25804,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B162" s="1">
         <v>46.0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>303</v>
@@ -25827,13 +25830,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B163" s="1">
         <v>46.0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>305</v>
@@ -25853,13 +25856,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B164" s="1">
         <v>46.0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>307</v>
@@ -25879,13 +25882,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B165" s="1">
         <v>46.0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>307</v>
@@ -25905,13 +25908,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B166" s="1">
         <v>47.0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>310</v>
@@ -25931,13 +25934,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B167" s="1">
         <v>47.0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>312</v>
@@ -25957,13 +25960,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B168" s="1">
         <v>48.0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>314</v>
@@ -25983,13 +25986,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B169" s="1">
         <v>48.0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>316</v>
@@ -26009,13 +26012,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B170" s="1">
         <v>48.0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>318</v>
@@ -26035,13 +26038,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B171" s="1">
         <v>48.0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>318</v>
@@ -26061,13 +26064,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B172" s="1">
         <v>48.0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>321</v>
@@ -26087,13 +26090,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B173" s="1">
         <v>49.0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>323</v>
@@ -26113,13 +26116,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B174" s="1">
         <v>49.0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>323</v>
@@ -26139,13 +26142,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B175" s="1">
         <v>49.0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>326</v>
@@ -26165,13 +26168,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B176" s="1">
         <v>49.0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>328</v>
@@ -26191,13 +26194,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B177" s="1">
         <v>49.0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>330</v>
@@ -26217,13 +26220,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B178" s="1">
         <v>50.0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>332</v>
@@ -26243,13 +26246,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B179" s="1">
         <v>51.0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>334</v>
@@ -26269,13 +26272,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B180" s="1">
         <v>52.0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>336</v>
@@ -26295,13 +26298,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B181" s="1">
         <v>52.0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>338</v>
@@ -26321,13 +26324,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B182" s="1">
         <v>52.0</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>340</v>
@@ -26347,13 +26350,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B183" s="1">
         <v>52.0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>340</v>
@@ -26373,13 +26376,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B184" s="1">
         <v>53.0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>343</v>
@@ -26399,13 +26402,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B185" s="1">
         <v>53.0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>345</v>
@@ -26425,13 +26428,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B186" s="1">
         <v>53.0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>347</v>
@@ -26451,13 +26454,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B187" s="1">
         <v>53.0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>349</v>
@@ -26477,13 +26480,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B188" s="1">
         <v>30.0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>351</v>
@@ -26503,13 +26506,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B189" s="1">
         <v>54.0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>353</v>
@@ -26529,13 +26532,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B190" s="1">
         <v>23.0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>355</v>
@@ -26555,13 +26558,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B191" s="1">
         <v>23.0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>355</v>
@@ -26581,13 +26584,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B192" s="1">
         <v>23.0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>358</v>
@@ -26607,13 +26610,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B193" s="1">
         <v>23.0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>360</v>
@@ -26633,13 +26636,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B194" s="1">
         <v>55.0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>362</v>
@@ -26659,13 +26662,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B195" s="1">
         <v>55.0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>364</v>
@@ -26685,13 +26688,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B196" s="1">
         <v>55.0</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>364</v>
@@ -26708,13 +26711,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B197" s="1">
         <v>56.0</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>366</v>
@@ -26734,13 +26737,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B198" s="1">
         <v>56.0</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>368</v>
@@ -26760,13 +26763,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B199" s="1">
         <v>56.0</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>368</v>
@@ -26786,13 +26789,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B200" s="1">
         <v>56.0</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>371</v>
@@ -26812,13 +26815,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B201" s="1">
         <v>57.0</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>373</v>
@@ -26838,13 +26841,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B202" s="1">
         <v>57.0</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>373</v>
@@ -26864,13 +26867,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B203" s="1">
         <v>57.0</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>376</v>
@@ -26890,13 +26893,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B204" s="1">
         <v>57.0</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>378</v>
@@ -26916,13 +26919,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B205" s="1">
         <v>57.0</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>380</v>
@@ -26942,13 +26945,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B206" s="1">
         <v>17.0</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>382</v>
@@ -26968,13 +26971,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B207" s="1">
         <v>17.0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>384</v>
@@ -26994,13 +26997,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B208" s="1">
         <v>17.0</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>386</v>
@@ -27020,13 +27023,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B209" s="1">
         <v>17.0</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>388</v>
@@ -27046,13 +27049,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B210" s="1">
         <v>58.0</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>390</v>
@@ -27072,13 +27075,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B211" s="1">
         <v>58.0</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>392</v>
@@ -27098,13 +27101,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B212" s="1">
         <v>58.0</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>394</v>
@@ -27124,13 +27127,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B213" s="1">
         <v>58.0</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>396</v>
@@ -27150,13 +27153,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B214" s="1">
         <v>58.0</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>398</v>
@@ -27176,13 +27179,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B215" s="1">
         <v>31.0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>400</v>
@@ -27202,13 +27205,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B216" s="1">
         <v>31.0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>402</v>
@@ -27228,13 +27231,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B217" s="1">
         <v>31.0</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>404</v>
@@ -27254,13 +27257,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B218" s="1">
         <v>59.0</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>406</v>
@@ -27280,13 +27283,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B219" s="1">
         <v>60.0</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>408</v>
@@ -27306,13 +27309,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B220" s="1">
         <v>60.0</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>410</v>
@@ -27332,13 +27335,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B221" s="1">
         <v>61.0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>412</v>
@@ -27358,13 +27361,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B222" s="1">
         <v>61.0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>414</v>
@@ -27384,13 +27387,13 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B223" s="1">
         <v>30.0</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>416</v>
@@ -27407,13 +27410,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B224" s="1">
         <v>62.0</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>417</v>
@@ -27433,13 +27436,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B225" s="1">
         <v>62.0</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>417</v>
@@ -27459,13 +27462,13 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B226" s="1">
         <v>62.0</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>420</v>
@@ -27485,13 +27488,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B227" s="1">
         <v>62.0</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>422</v>
@@ -27511,13 +27514,13 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B228" s="1">
         <v>62.0</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>424</v>
@@ -27537,13 +27540,13 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B229" s="1">
         <v>63.0</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>426</v>
@@ -27563,13 +27566,13 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B230" s="1">
         <v>6.0</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>428</v>
@@ -27589,13 +27592,13 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B231" s="1">
         <v>64.0</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>430</v>
@@ -27615,13 +27618,13 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B232" s="1">
         <v>64.0</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>430</v>
@@ -27641,13 +27644,13 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B233" s="1">
         <v>64.0</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>433</v>
@@ -27667,13 +27670,13 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B234" s="1">
         <v>64.0</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>435</v>
@@ -27693,13 +27696,13 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B235" s="1">
         <v>64.0</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>437</v>
@@ -27719,13 +27722,13 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B236" s="1">
         <v>65.0</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>439</v>
@@ -27745,13 +27748,13 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B237" s="1">
         <v>65.0</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>441</v>
@@ -27771,13 +27774,13 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B238" s="1">
         <v>65.0</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>443</v>
@@ -27797,13 +27800,13 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B239" s="1">
         <v>66.0</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>445</v>
@@ -27823,13 +27826,13 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B240" s="1">
         <v>66.0</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>447</v>
@@ -27849,13 +27852,13 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B241" s="1">
         <v>66.0</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>449</v>
@@ -27875,13 +27878,13 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B242" s="1">
         <v>66.0</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>451</v>
@@ -27901,13 +27904,13 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B243" s="1">
         <v>67.0</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>453</v>
@@ -27927,13 +27930,13 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B244" s="1">
         <v>67.0</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>455</v>
@@ -27953,13 +27956,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B245" s="1">
         <v>67.0</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>457</v>
@@ -27976,13 +27979,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B246" s="1">
         <v>67.0</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>458</v>
@@ -28002,13 +28005,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B247" s="1">
         <v>68.0</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>460</v>
@@ -28028,13 +28031,13 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B248" s="1">
         <v>68.0</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>462</v>
@@ -28054,13 +28057,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B249" s="1">
         <v>69.0</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>464</v>
@@ -28080,13 +28083,13 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B250" s="1">
         <v>68.0</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>466</v>
@@ -28106,13 +28109,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B251" s="1">
         <v>70.0</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>468</v>
@@ -28129,13 +28132,13 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B252" s="1">
         <v>47.0</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>469</v>
@@ -28155,13 +28158,13 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B253" s="1">
         <v>47.0</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>471</v>
@@ -28181,13 +28184,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B254" s="1">
         <v>61.0</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>473</v>
@@ -28207,13 +28210,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B255" s="1">
         <v>30.0</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>475</v>
@@ -28233,13 +28236,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B256" s="1">
         <v>71.0</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>477</v>
@@ -28259,13 +28262,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B257" s="1">
         <v>72.0</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>479</v>
@@ -28285,13 +28288,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B258" s="1">
         <v>72.0</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>481</v>
@@ -28311,13 +28314,13 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B259" s="1">
         <v>72.0</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>483</v>
@@ -28337,13 +28340,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B260" s="1">
         <v>72.0</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>485</v>
@@ -28363,13 +28366,13 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B261" s="1">
         <v>72.0</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>487</v>
@@ -28389,13 +28392,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B262" s="1">
         <v>34.0</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>489</v>
@@ -28415,13 +28418,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B263" s="1">
         <v>12.0</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>491</v>
@@ -28441,13 +28444,13 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B264" s="1">
         <v>73.0</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>493</v>
@@ -28467,13 +28470,13 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B265" s="1">
         <v>73.0</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>495</v>
@@ -28493,13 +28496,13 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B266" s="1">
         <v>73.0</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>497</v>
@@ -28519,13 +28522,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B267" s="1">
         <v>73.0</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>499</v>
@@ -28545,13 +28548,13 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B268" s="1">
         <v>74.0</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>501</v>
@@ -28571,13 +28574,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B269" s="1">
         <v>74.0</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>501</v>
@@ -28597,13 +28600,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B270" s="1">
         <v>74.0</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>504</v>
@@ -28623,13 +28626,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B271" s="1">
         <v>74.0</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>506</v>
@@ -28649,13 +28652,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B272" s="1">
         <v>74.0</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>508</v>
@@ -28675,13 +28678,13 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B273" s="1">
         <v>52.0</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>510</v>
@@ -28701,13 +28704,13 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B274" s="1">
         <v>75.0</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>512</v>
@@ -28727,13 +28730,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B275" s="1">
         <v>75.0</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>512</v>
@@ -28753,13 +28756,13 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B276" s="1">
         <v>75.0</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>515</v>
@@ -28779,13 +28782,13 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B277" s="1">
         <v>76.0</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>517</v>
@@ -28805,13 +28808,13 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B278" s="1">
         <v>76.0</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>519</v>
@@ -28828,13 +28831,13 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B279" s="1">
         <v>76.0</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>520</v>
@@ -28854,13 +28857,13 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B280" s="1">
         <v>45.0</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>522</v>
@@ -28880,13 +28883,13 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B281" s="1">
         <v>45.0</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>522</v>
@@ -28906,13 +28909,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B282" s="1">
         <v>45.0</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>525</v>
@@ -28929,13 +28932,13 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B283" s="1">
         <v>45.0</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>526</v>
@@ -28952,13 +28955,13 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B284" s="1">
         <v>45.0</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>527</v>
@@ -28975,13 +28978,13 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B285" s="1">
         <v>77.0</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>528</v>
@@ -29001,13 +29004,13 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B286" s="1">
         <v>78.0</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>530</v>
@@ -29027,13 +29030,13 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B287" s="1">
         <v>78.0</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>532</v>
@@ -29053,13 +29056,13 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B288" s="1">
         <v>78.0</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>534</v>
@@ -29076,13 +29079,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B289" s="1">
         <v>78.0</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>535</v>
@@ -29102,13 +29105,13 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B290" s="1">
         <v>78.0</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>537</v>
@@ -29128,13 +29131,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B291" s="1">
         <v>78.0</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>539</v>
@@ -29154,13 +29157,13 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B292" s="1">
         <v>6.0</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>541</v>
@@ -29180,13 +29183,13 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B293" s="1">
         <v>79.0</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>543</v>
@@ -29206,13 +29209,13 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B294" s="1">
         <v>79.0</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>545</v>
@@ -29232,13 +29235,13 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B295" s="1">
         <v>80.0</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>547</v>
@@ -29258,13 +29261,13 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B296" s="1">
         <v>81.0</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>549</v>
@@ -29284,13 +29287,13 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B297" s="1">
         <v>82.0</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>551</v>
@@ -29310,13 +29313,13 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B298" s="1">
         <v>83.0</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>553</v>
@@ -29336,13 +29339,13 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B299" s="1">
         <v>83.0</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>555</v>
@@ -29362,13 +29365,13 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B300" s="1">
         <v>84.0</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>557</v>
@@ -29388,13 +29391,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B301" s="1">
         <v>84.0</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>559</v>
@@ -29411,13 +29414,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B302" s="1">
         <v>84.0</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>560</v>
@@ -29437,13 +29440,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B303" s="1">
         <v>84.0</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>562</v>
@@ -29460,13 +29463,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B304" s="1">
         <v>85.0</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>563</v>
@@ -29483,13 +29486,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B305" s="1">
         <v>86.0</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>564</v>
@@ -29509,13 +29512,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B306" s="1">
         <v>86.0</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>566</v>
@@ -29535,13 +29538,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B307" s="1">
         <v>86.0</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>568</v>
@@ -29561,13 +29564,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B308" s="1">
         <v>86.0</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>570</v>
@@ -29587,13 +29590,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B309" s="1">
         <v>87.0</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>572</v>
@@ -29613,13 +29616,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B310" s="1">
         <v>87.0</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>574</v>
@@ -29636,13 +29639,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B311" s="1">
         <v>87.0</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>575</v>
@@ -29662,13 +29665,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B312" s="1">
         <v>87.0</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>577</v>
@@ -29688,13 +29691,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B313" s="1">
         <v>87.0</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>579</v>
@@ -29714,13 +29717,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B314" s="1">
         <v>85.0</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>581</v>
@@ -29740,13 +29743,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B315" s="1">
         <v>88.0</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>583</v>
@@ -29766,13 +29769,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B316" s="1">
         <v>10.0</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>585</v>
@@ -29792,13 +29795,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B317" s="1">
         <v>10.0</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>587</v>
@@ -29815,13 +29818,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B318" s="1">
         <v>10.0</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>588</v>
@@ -29838,13 +29841,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B319" s="1">
         <v>79.0</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>589</v>
@@ -29864,13 +29867,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B320" s="1">
         <v>63.0</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>591</v>
@@ -29890,13 +29893,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B321" s="1">
         <v>89.0</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>593</v>
@@ -29916,13 +29919,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B322" s="1">
         <v>89.0</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>593</v>
@@ -29942,13 +29945,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B323" s="1">
         <v>89.0</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>596</v>
@@ -29968,13 +29971,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B324" s="1">
         <v>89.0</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>598</v>
@@ -29994,13 +29997,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B325" s="1">
         <v>89.0</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>600</v>
@@ -30020,13 +30023,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B326" s="1">
         <v>51.0</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>602</v>
@@ -30046,13 +30049,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B327" s="1">
         <v>51.0</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>604</v>
@@ -30072,13 +30075,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B328" s="1">
         <v>51.0</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>606</v>
@@ -30098,13 +30101,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B329" s="1">
         <v>90.0</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>608</v>
@@ -30124,13 +30127,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B330" s="1">
         <v>90.0</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>610</v>
@@ -30150,13 +30153,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B331" s="1">
         <v>90.0</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>612</v>
@@ -30176,13 +30179,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B332" s="1">
         <v>90.0</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>614</v>
@@ -30202,13 +30205,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B333" s="1">
         <v>90.0</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>616</v>
@@ -30228,13 +30231,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B334" s="1">
         <v>91.0</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>618</v>
@@ -30254,13 +30257,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B335" s="1">
         <v>91.0</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>618</v>
@@ -30280,13 +30283,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B336" s="1">
         <v>8.0</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>621</v>
@@ -30306,13 +30309,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B337" s="1">
         <v>8.0</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>623</v>
@@ -30332,13 +30335,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B338" s="1">
         <v>8.0</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>625</v>
@@ -30358,13 +30361,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B339" s="1">
         <v>92.0</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>627</v>
@@ -30384,13 +30387,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B340" s="1">
         <v>92.0</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>627</v>
@@ -30410,13 +30413,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B341" s="1">
         <v>92.0</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>630</v>
@@ -30436,13 +30439,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B342" s="1">
         <v>92.0</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>632</v>
@@ -30462,13 +30465,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B343" s="1">
         <v>92.0</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>634</v>
@@ -30488,13 +30491,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B344" s="1">
         <v>93.0</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>636</v>
@@ -30514,13 +30517,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B345" s="1">
         <v>93.0</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>638</v>
@@ -30540,13 +30543,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B346" s="1">
         <v>93.0</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>640</v>
@@ -30566,13 +30569,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B347" s="1">
         <v>93.0</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>642</v>
@@ -30592,13 +30595,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B348" s="1">
         <v>94.0</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>644</v>
@@ -30618,13 +30621,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B349" s="1">
         <v>94.0</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>644</v>
@@ -30644,13 +30647,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B350" s="1">
         <v>94.0</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>647</v>
@@ -30670,13 +30673,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B351" s="1">
         <v>94.0</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>649</v>
@@ -30696,13 +30699,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B352" s="1">
         <v>94.0</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>651</v>
@@ -30722,13 +30725,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B353" s="1">
         <v>20.0</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>653</v>
@@ -30748,13 +30751,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B354" s="1">
         <v>20.0</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>655</v>
@@ -30774,13 +30777,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B355" s="1">
         <v>95.0</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>657</v>
@@ -30800,13 +30803,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B356" s="1">
         <v>96.0</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>659</v>
@@ -30823,13 +30826,13 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B357" s="1">
         <v>95.0</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>660</v>
@@ -30849,13 +30852,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B358" s="1">
         <v>97.0</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>662</v>
@@ -30875,13 +30878,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B359" s="1">
         <v>98.0</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>664</v>
@@ -30901,13 +30904,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B360" s="1">
         <v>98.0</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>666</v>
@@ -30927,13 +30930,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B361" s="1">
         <v>99.0</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>668</v>
@@ -30953,13 +30956,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B362" s="1">
         <v>99.0</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>668</v>
@@ -30979,13 +30982,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B363" s="1">
         <v>99.0</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>671</v>
@@ -31005,13 +31008,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B364" s="1">
         <v>99.0</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>673</v>
@@ -31031,13 +31034,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B365" s="1">
         <v>98.0</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>675</v>
@@ -31057,13 +31060,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B366" s="1">
         <v>100.0</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>677</v>
@@ -31080,13 +31083,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B367" s="1">
         <v>100.0</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>678</v>
@@ -31106,13 +31109,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B368" s="1">
         <v>100.0</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>680</v>
@@ -31129,13 +31132,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B369" s="1">
         <v>69.0</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>681</v>
@@ -31152,13 +31155,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B370" s="1">
         <v>101.0</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>682</v>
@@ -31178,13 +31181,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B371" s="1">
         <v>101.0</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>684</v>
@@ -31204,13 +31207,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B372" s="1">
         <v>102.0</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>686</v>
@@ -31230,13 +31233,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B373" s="1">
         <v>101.0</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>688</v>
@@ -31256,13 +31259,13 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B374" s="1">
         <v>101.0</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>690</v>
@@ -31282,13 +31285,13 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B375" s="1">
         <v>38.0</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>692</v>
@@ -31308,13 +31311,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B376" s="1">
         <v>103.0</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>694</v>
@@ -31334,13 +31337,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B377" s="1">
         <v>103.0</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>696</v>
@@ -31360,13 +31363,13 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B378" s="1">
         <v>104.0</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>698</v>
@@ -31386,13 +31389,13 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B379" s="1">
         <v>104.0</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>698</v>
@@ -31412,13 +31415,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B380" s="1">
         <v>104.0</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>701</v>
@@ -31438,13 +31441,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B381" s="1">
         <v>104.0</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>703</v>
@@ -31464,13 +31467,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B382" s="1">
         <v>104.0</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>705</v>
@@ -31490,13 +31493,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B383" s="1">
         <v>104.0</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>707</v>
@@ -31516,13 +31519,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B384" s="1">
         <v>38.0</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>709</v>
@@ -31542,13 +31545,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B385" s="1">
         <v>38.0</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>711</v>
@@ -31568,13 +31571,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B386" s="1">
         <v>38.0</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>713</v>
@@ -31594,13 +31597,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B387" s="1">
         <v>105.0</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>715</v>
@@ -31620,13 +31623,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B388" s="1">
         <v>105.0</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>717</v>
@@ -31646,13 +31649,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B389" s="1">
         <v>105.0</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>717</v>
@@ -31672,13 +31675,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B390" s="1">
         <v>105.0</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>720</v>
@@ -31698,13 +31701,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B391" s="1">
         <v>103.0</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>722</v>
@@ -31721,13 +31724,13 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B392" s="1">
         <v>103.0</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>723</v>
@@ -31744,13 +31747,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B393" s="1">
         <v>77.0</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>724</v>
@@ -31770,13 +31773,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B394" s="1">
         <v>103.0</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>726</v>
@@ -31796,13 +31799,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B395" s="1">
         <v>103.0</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>728</v>
@@ -31822,13 +31825,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B396" s="1">
         <v>103.0</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>730</v>
@@ -31848,13 +31851,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B397" s="1">
         <v>103.0</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>732</v>
@@ -31874,13 +31877,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B398" s="1">
         <v>103.0</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>734</v>
@@ -31900,13 +31903,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B399" s="1">
         <v>103.0</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>736</v>
@@ -31926,13 +31929,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B400" s="1">
         <v>103.0</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>738</v>
@@ -31952,13 +31955,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B401" s="1">
         <v>103.0</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>740</v>
@@ -31978,13 +31981,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B402" s="1">
         <v>106.0</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>742</v>
@@ -32004,13 +32007,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B403" s="1">
         <v>20.0</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>744</v>
@@ -32030,13 +32033,13 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B404" s="1">
         <v>87.0</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>746</v>
@@ -32056,13 +32059,13 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B405" s="1">
         <v>107.0</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>748</v>
@@ -32082,13 +32085,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B406" s="1">
         <v>107.0</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>750</v>
@@ -32108,13 +32111,13 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B407" s="1">
         <v>107.0</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>752</v>
@@ -32134,13 +32137,13 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B408" s="1">
         <v>8.0</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>754</v>
@@ -32157,13 +32160,13 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B409" s="1">
         <v>85.0</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>755</v>
@@ -32183,13 +32186,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B410" s="1">
         <v>108.0</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>757</v>
@@ -32209,13 +32212,13 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B411" s="1">
         <v>108.0</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>759</v>
@@ -32235,13 +32238,13 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B412" s="1">
         <v>108.0</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>761</v>
@@ -32261,13 +32264,13 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B413" s="1">
         <v>108.0</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>763</v>
@@ -32287,13 +32290,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B414" s="1">
         <v>109.0</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>765</v>
@@ -32313,13 +32316,13 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B415" s="1">
         <v>109.0</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>767</v>
@@ -32339,13 +32342,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B416" s="1">
         <v>109.0</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>769</v>
@@ -32365,13 +32368,13 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B417" s="1">
         <v>109.0</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>771</v>
@@ -32391,13 +32394,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B418" s="1">
         <v>110.0</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>773</v>
@@ -32417,13 +32420,13 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B419" s="1">
         <v>110.0</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>773</v>
@@ -32443,13 +32446,13 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B420" s="1">
         <v>110.0</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>776</v>
@@ -32469,13 +32472,13 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B421" s="1">
         <v>110.0</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>778</v>
@@ -32495,13 +32498,13 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B422" s="1">
         <v>111.0</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>780</v>
@@ -32521,13 +32524,13 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B423" s="1">
         <v>111.0</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>782</v>
@@ -32547,13 +32550,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B424" s="1">
         <v>111.0</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>784</v>
@@ -32573,13 +32576,13 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B425" s="1">
         <v>111.0</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>784</v>
@@ -32599,13 +32602,13 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B426" s="1">
         <v>111.0</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>787</v>
@@ -32625,13 +32628,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B427" s="1">
         <v>112.0</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>789</v>
@@ -32651,13 +32654,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B428" s="1">
         <v>112.0</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>789</v>
@@ -32677,13 +32680,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B429" s="1">
         <v>97.0</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>792</v>
@@ -32703,13 +32706,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B430" s="1">
         <v>97.0</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>794</v>
@@ -32729,13 +32732,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B431" s="1">
         <v>97.0</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>796</v>
@@ -32755,13 +32758,13 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B432" s="1">
         <v>97.0</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>798</v>
@@ -32781,13 +32784,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B433" s="1">
         <v>97.0</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>800</v>
@@ -32807,13 +32810,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B434" s="1">
         <v>18.0</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>802</v>
@@ -32833,13 +32836,13 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B435" s="1">
         <v>18.0</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>804</v>
@@ -32859,13 +32862,13 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B436" s="1">
         <v>18.0</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>806</v>
@@ -32885,13 +32888,13 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B437" s="1">
         <v>37.0</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>808</v>
@@ -32911,13 +32914,13 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B438" s="1">
         <v>37.0</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>810</v>
@@ -32937,13 +32940,13 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B439" s="1">
         <v>37.0</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>812</v>
@@ -32963,13 +32966,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B440" s="1">
         <v>37.0</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>814</v>
@@ -32989,13 +32992,13 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B441" s="1">
         <v>113.0</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>816</v>
@@ -33015,13 +33018,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B442" s="1">
         <v>114.0</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>818</v>
@@ -33041,13 +33044,13 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B443" s="1">
         <v>114.0</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>820</v>
@@ -33067,13 +33070,13 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B444" s="1">
         <v>114.0</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>822</v>
@@ -33093,13 +33096,13 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B445" s="1">
         <v>114.0</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>824</v>
@@ -33119,13 +33122,13 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B446" s="1">
         <v>115.0</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>826</v>
@@ -33145,13 +33148,13 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B447" s="1">
         <v>115.0</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>828</v>
@@ -33171,13 +33174,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B448" s="1">
         <v>115.0</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>830</v>
@@ -33197,13 +33200,13 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B449" s="1">
         <v>116.0</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>832</v>
@@ -33223,13 +33226,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B450" s="1">
         <v>116.0</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>834</v>
@@ -33249,13 +33252,13 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B451" s="1">
         <v>116.0</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>836</v>
@@ -33275,13 +33278,13 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B452" s="1">
         <v>116.0</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>836</v>
@@ -33301,13 +33304,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B453" s="1">
         <v>116.0</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>839</v>
@@ -33327,13 +33330,13 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B454" s="1">
         <v>68.0</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>841</v>
@@ -33353,13 +33356,13 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B455" s="1">
         <v>117.0</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>843</v>
@@ -33379,13 +33382,13 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B456" s="1">
         <v>117.0</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>843</v>
@@ -33405,13 +33408,13 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B457" s="1">
         <v>117.0</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>846</v>
@@ -33431,13 +33434,13 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B458" s="1">
         <v>117.0</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>848</v>
@@ -33457,13 +33460,13 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B459" s="1">
         <v>117.0</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>848</v>
@@ -33483,13 +33486,13 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B460" s="1">
         <v>117.0</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>851</v>
@@ -33509,13 +33512,13 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B461" s="1">
         <v>118.0</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>853</v>
@@ -33535,13 +33538,13 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B462" s="1">
         <v>118.0</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>853</v>
@@ -33561,13 +33564,13 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B463" s="1">
         <v>118.0</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>856</v>
@@ -33584,13 +33587,13 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B464" s="1">
         <v>118.0</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>857</v>
@@ -33607,13 +33610,13 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B465" s="1">
         <v>118.0</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>858</v>
@@ -33630,13 +33633,13 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B466" s="1">
         <v>9.0</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>859</v>
@@ -33656,13 +33659,13 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B467" s="1">
         <v>42.0</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>861</v>
@@ -33682,13 +33685,13 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B468" s="1">
         <v>42.0</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>863</v>
@@ -33708,13 +33711,13 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B469" s="1">
         <v>42.0</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>865</v>
@@ -33734,13 +33737,13 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B470" s="1">
         <v>85.0</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>867</v>
@@ -33760,13 +33763,13 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B471" s="1">
         <v>119.0</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>869</v>
@@ -33786,13 +33789,13 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B472" s="1">
         <v>119.0</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>869</v>
@@ -33812,13 +33815,13 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B473" s="1">
         <v>119.0</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>872</v>
@@ -33835,13 +33838,13 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B474" s="1">
         <v>119.0</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>873</v>
@@ -33858,13 +33861,13 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B475" s="1">
         <v>119.0</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>874</v>
@@ -33884,13 +33887,13 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B476" s="1">
         <v>115.0</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>876</v>
@@ -33910,13 +33913,13 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B477" s="1">
         <v>80.0</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>878</v>
@@ -33936,13 +33939,13 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B478" s="1">
         <v>80.0</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>878</v>
@@ -33962,13 +33965,13 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B479" s="1">
         <v>80.0</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>881</v>
@@ -33988,13 +33991,13 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B480" s="1">
         <v>80.0</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>883</v>
@@ -34014,13 +34017,13 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B481" s="1">
         <v>120.0</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>885</v>
@@ -34040,13 +34043,13 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B482" s="1">
         <v>120.0</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>887</v>
@@ -34066,13 +34069,13 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B483" s="1">
         <v>120.0</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>889</v>
@@ -34092,13 +34095,13 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B484" s="1">
         <v>120.0</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>891</v>
@@ -34118,13 +34121,13 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B485" s="1">
         <v>121.0</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>893</v>
@@ -34144,13 +34147,13 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B486" s="1">
         <v>121.0</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>895</v>
@@ -34170,13 +34173,13 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B487" s="1">
         <v>121.0</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>897</v>
@@ -34196,13 +34199,13 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B488" s="1">
         <v>121.0</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>899</v>
@@ -34222,13 +34225,13 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B489" s="1">
         <v>121.0</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>901</v>
@@ -34248,13 +34251,13 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B490" s="1">
         <v>122.0</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>903</v>
@@ -34274,13 +34277,13 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B491" s="1">
         <v>122.0</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>905</v>
@@ -34300,13 +34303,13 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B492" s="1">
         <v>122.0</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>907</v>
@@ -34326,13 +34329,13 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B493" s="1">
         <v>122.0</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>909</v>
@@ -34352,13 +34355,13 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B494" s="1">
         <v>20.0</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>911</v>
@@ -34378,13 +34381,13 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B495" s="1">
         <v>20.0</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>913</v>
@@ -34404,13 +34407,13 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B496" s="1">
         <v>81.0</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>915</v>
@@ -34430,13 +34433,13 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B497" s="1">
         <v>123.0</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>917</v>
@@ -34456,13 +34459,13 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B498" s="1">
         <v>123.0</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>919</v>
@@ -34482,13 +34485,13 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B499" s="1">
         <v>123.0</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>921</v>
@@ -34508,13 +34511,13 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B500" s="1">
         <v>124.0</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>923</v>
@@ -34531,13 +34534,13 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B501" s="1">
         <v>124.0</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>924</v>
@@ -34557,13 +34560,13 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B502" s="1">
         <v>124.0</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>926</v>
@@ -34580,13 +34583,13 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B503" s="1">
         <v>79.0</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>927</v>
@@ -34606,13 +34609,13 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B504" s="1">
         <v>125.0</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>929</v>
@@ -34632,13 +34635,13 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B505" s="1">
         <v>125.0</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>929</v>
@@ -34658,13 +34661,13 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B506" s="1">
         <v>125.0</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>932</v>
@@ -34684,13 +34687,13 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B507" s="1">
         <v>125.0</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>934</v>
@@ -34710,13 +34713,13 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B508" s="1">
         <v>125.0</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>936</v>
@@ -34736,13 +34739,13 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B509" s="1">
         <v>59.0</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>938</v>
@@ -34762,13 +34765,13 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B510" s="1">
         <v>61.0</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>940</v>
@@ -34788,13 +34791,13 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B511" s="1">
         <v>61.0</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>942</v>
@@ -34814,13 +34817,13 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B512" s="1">
         <v>61.0</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>944</v>
@@ -34840,13 +34843,13 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B513" s="1">
         <v>126.0</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>946</v>
@@ -34866,13 +34869,13 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B514" s="1">
         <v>9.0</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>948</v>
@@ -34892,13 +34895,13 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B515" s="1">
         <v>127.0</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>950</v>
@@ -34918,13 +34921,13 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B516" s="1">
         <v>127.0</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>952</v>
@@ -34944,13 +34947,13 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B517" s="1">
         <v>127.0</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>952</v>
@@ -34970,13 +34973,13 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B518" s="1">
         <v>127.0</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>955</v>
@@ -34996,13 +34999,13 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B519" s="1">
         <v>85.0</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>957</v>
@@ -35022,13 +35025,13 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B520" s="1">
         <v>85.0</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>959</v>
@@ -35048,13 +35051,13 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B521" s="1">
         <v>128.0</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>961</v>
@@ -35074,13 +35077,13 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B522" s="1">
         <v>128.0</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>963</v>
@@ -35100,13 +35103,13 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B523" s="1">
         <v>128.0</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>965</v>
@@ -35126,13 +35129,13 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B524" s="1">
         <v>128.0</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>965</v>
@@ -35152,13 +35155,13 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B525" s="1">
         <v>128.0</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>968</v>
@@ -35178,13 +35181,13 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B526" s="1">
         <v>129.0</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>970</v>
@@ -35204,13 +35207,13 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B527" s="1">
         <v>129.0</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>972</v>
@@ -35230,13 +35233,13 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B528" s="1">
         <v>112.0</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>974</v>
@@ -35253,13 +35256,13 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B529" s="1">
         <v>112.0</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>975</v>
@@ -35279,13 +35282,13 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B530" s="1">
         <v>129.0</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>977</v>
@@ -35305,13 +35308,13 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B531" s="1">
         <v>112.0</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>979</v>
@@ -35331,13 +35334,13 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B532" s="1">
         <v>56.0</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>981</v>
@@ -35357,13 +35360,13 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B533" s="1">
         <v>56.0</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>983</v>
@@ -35383,13 +35386,13 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B534" s="1">
         <v>56.0</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>985</v>
@@ -35409,13 +35412,13 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B535" s="1">
         <v>56.0</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>987</v>
@@ -35435,13 +35438,13 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B536" s="1">
         <v>56.0</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>989</v>
@@ -35461,13 +35464,13 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B537" s="1">
         <v>130.0</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>991</v>
@@ -35487,13 +35490,13 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B538" s="1">
         <v>130.0</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>993</v>
@@ -35513,13 +35516,13 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B539" s="1">
         <v>130.0</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>995</v>
@@ -35539,13 +35542,13 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B540" s="1">
         <v>130.0</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>997</v>
@@ -35565,13 +35568,13 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B541" s="1">
         <v>130.0</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>999</v>
@@ -35591,13 +35594,13 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B542" s="1">
         <v>30.0</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>1001</v>
@@ -35617,13 +35620,13 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B543" s="1">
         <v>65.0</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>1003</v>
@@ -35643,13 +35646,13 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B544" s="1">
         <v>131.0</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>1005</v>
@@ -35669,13 +35672,13 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B545" s="1">
         <v>131.0</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>1005</v>
@@ -35695,13 +35698,13 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B546" s="1">
         <v>131.0</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>1008</v>
@@ -35721,13 +35724,13 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B547" s="1">
         <v>131.0</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>1010</v>
@@ -35747,13 +35750,13 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B548" s="1">
         <v>131.0</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>1012</v>
@@ -35773,13 +35776,13 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B549" s="1">
         <v>85.0</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>1014</v>
@@ -35799,13 +35802,13 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B550" s="1">
         <v>20.0</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>1016</v>
@@ -35825,13 +35828,13 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B551" s="1">
         <v>132.0</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>1018</v>
@@ -35851,13 +35854,13 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B552" s="1">
         <v>132.0</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>1018</v>
@@ -35877,13 +35880,13 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B553" s="1">
         <v>132.0</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>1021</v>
@@ -35903,13 +35906,13 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B554" s="1">
         <v>132.0</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>1023</v>
@@ -35929,13 +35932,13 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B555" s="1">
         <v>132.0</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>1025</v>
@@ -35955,13 +35958,13 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B556" s="1">
         <v>133.0</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>1027</v>
@@ -35981,13 +35984,13 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B557" s="1">
         <v>133.0</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>1027</v>
@@ -36007,13 +36010,13 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B558" s="1">
         <v>133.0</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D558" s="1" t="s">
         <v>1030</v>
@@ -36030,13 +36033,13 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B559" s="1">
         <v>133.0</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>1031</v>
@@ -36053,13 +36056,13 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B560" s="1">
         <v>133.0</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>1032</v>
@@ -36076,13 +36079,13 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B561" s="1">
         <v>134.0</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D561" s="1" t="s">
         <v>1033</v>
@@ -36099,13 +36102,13 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B562" s="1">
         <v>134.0</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>1034</v>
@@ -36122,13 +36125,13 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B563" s="1">
         <v>134.0</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>1035</v>
@@ -36145,13 +36148,13 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B564" s="1">
         <v>134.0</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>1036</v>
@@ -36171,13 +36174,13 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B565" s="1">
         <v>135.0</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>1038</v>
@@ -36197,13 +36200,13 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B566" s="1">
         <v>135.0</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>1040</v>
@@ -36223,13 +36226,13 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B567" s="1">
         <v>135.0</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>1040</v>
@@ -36249,13 +36252,13 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B568" s="1">
         <v>135.0</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>1043</v>
@@ -36275,13 +36278,13 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B569" s="1">
         <v>22.0</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>1045</v>
@@ -36301,13 +36304,13 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B570" s="1">
         <v>22.0</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>1047</v>
@@ -36327,13 +36330,13 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B571" s="1">
         <v>135.0</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>1049</v>
@@ -36353,13 +36356,13 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B572" s="1">
         <v>87.0</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>1051</v>
@@ -36379,13 +36382,13 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B573" s="1">
         <v>87.0</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>1053</v>
@@ -36405,13 +36408,13 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B574" s="1">
         <v>87.0</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>1055</v>
@@ -36431,13 +36434,13 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B575" s="1">
         <v>85.0</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>1057</v>
@@ -36457,13 +36460,13 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B576" s="1">
         <v>136.0</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>1059</v>
@@ -36483,13 +36486,13 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B577" s="1">
         <v>136.0</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>1061</v>
@@ -36509,13 +36512,13 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B578" s="1">
         <v>136.0</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>1063</v>
@@ -36535,13 +36538,13 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B579" s="1">
         <v>136.0</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>1065</v>
